--- a/results/mp/logistic/corona/confidence/42/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,157 +46,151 @@
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -562,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -694,16 +688,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L4">
         <v>24</v>
       </c>
-      <c r="K4">
-        <v>0.925</v>
-      </c>
-      <c r="L4">
-        <v>111</v>
-      </c>
       <c r="M4">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6470588235294118</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -741,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5789473684210527</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4338624338624338</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.392156862745098</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3546511627906977</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>333</v>
+        <v>120</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3389830508474576</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>308</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,37 +1017,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2214765100671141</v>
+        <v>0.00644122383252818</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>116</v>
+        <v>3085</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,37 +1067,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1388888888888889</v>
+        <v>0.00487012987012987</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>310</v>
+        <v>4291</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1123,187 +1117,115 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.07539682539682539</v>
+        <v>0.004664723032069971</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>233</v>
+        <v>5121</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L14">
+        <v>64</v>
+      </c>
+      <c r="M14">
+        <v>64</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L15">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K13">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="L13">
-        <v>66</v>
-      </c>
-      <c r="M13">
-        <v>66</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.009348807221147646</v>
-      </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>34</v>
-      </c>
-      <c r="E14">
-        <v>0.15</v>
-      </c>
-      <c r="F14">
-        <v>0.85</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3073</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.004470359572400389</v>
-      </c>
-      <c r="C15">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>0.47</v>
-      </c>
-      <c r="F15">
-        <v>0.53</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>5122</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0.76875</v>
-      </c>
-      <c r="L15">
-        <v>123</v>
-      </c>
-      <c r="M15">
-        <v>123</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.004021717273275689</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>43</v>
-      </c>
-      <c r="E16">
-        <v>0.53</v>
-      </c>
-      <c r="F16">
-        <v>0.47</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>4953</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.7578125</v>
+        <v>0.765625</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1367,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1393,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1419,15 +1341,15 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L21">
         <v>34</v>
@@ -1445,12 +1367,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>0.7037037037037037</v>
@@ -1476,16 +1398,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L23">
         <v>43</v>
       </c>
-      <c r="K23">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L23">
-        <v>29</v>
-      </c>
       <c r="M23">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1497,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.66</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L24">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1523,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6571428571428571</v>
+        <v>0.66</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1549,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6507936507936508</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1575,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6441176470588236</v>
+        <v>0.625</v>
       </c>
       <c r="L27">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1601,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.5941422594142259</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L28">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M28">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1627,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.5898305084745763</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1653,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5531914893617021</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L30">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1679,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.55</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1705,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1731,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1757,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.4313725490196079</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1783,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4269662921348314</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1809,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.3205128205128205</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1835,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.3013698630136986</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1861,137 +1783,137 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.02086811352253756</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N38">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1173</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.0086271567891973</v>
+        <v>0.02086811352253756</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N39">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="O39">
-        <v>0.23</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2643</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.004622186495176849</v>
+        <v>0.01087364079490064</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="O40">
-        <v>0.47</v>
+        <v>0.17</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4953</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.004406307977736549</v>
+        <v>0.005017057997190448</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N41">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="O41">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>4293</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K42">
-        <v>0.003889537145079735</v>
+        <v>0.003890293717175647</v>
       </c>
       <c r="L42">
         <v>20</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="O42">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>5122</v>
+        <v>5121</v>
       </c>
     </row>
   </sheetData>
